--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -264,11 +264,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="100435888"/>
-        <c:axId val="681720526"/>
+        <c:axId val="1298464484"/>
+        <c:axId val="552169647"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100435888"/>
+        <c:axId val="1298464484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,10 +320,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681720526"/>
+        <c:crossAx val="552169647"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="681720526"/>
+        <c:axId val="552169647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100435888"/>
+        <c:crossAx val="1298464484"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -264,11 +264,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1298464484"/>
-        <c:axId val="552169647"/>
+        <c:axId val="393733133"/>
+        <c:axId val="82540386"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1298464484"/>
+        <c:axId val="393733133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,10 +320,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552169647"/>
+        <c:crossAx val="82540386"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552169647"/>
+        <c:axId val="82540386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1298464484"/>
+        <c:crossAx val="393733133"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -264,11 +264,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1298464484"/>
-        <c:axId val="552169647"/>
+        <c:axId val="1726416545"/>
+        <c:axId val="1024712845"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1298464484"/>
+        <c:axId val="1726416545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,10 +320,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552169647"/>
+        <c:crossAx val="1024712845"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552169647"/>
+        <c:axId val="1024712845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1298464484"/>
+        <c:crossAx val="1726416545"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -264,11 +264,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1726416545"/>
-        <c:axId val="1024712845"/>
+        <c:axId val="188008295"/>
+        <c:axId val="317442097"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1726416545"/>
+        <c:axId val="188008295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,10 +320,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1024712845"/>
+        <c:crossAx val="317442097"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1024712845"/>
+        <c:axId val="317442097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726416545"/>
+        <c:crossAx val="188008295"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
